--- a/Gantt_PlanoTese_ControloPlataformaSismica.xlsx
+++ b/Gantt_PlanoTese_ControloPlataformaSismica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lnecpt-my.sharepoint.com/personal/fvoliveira_lnec_pt/Documents/Documents/Investigacao/Teses/ControloPlataformaSismica/PlanoTese/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist198555_tecnico_ulisboa_pt/Documents/Controlo de Plataforma Sismica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_F25DC773A252ABDACC104863F1DD4ACA5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{906E04B3-6CFA-49C5-8EAB-25E4BA244C28}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_F25DC773A252ABDACC104863F1DD4ACA5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1F27DB-81A8-4754-ACED-D759329FA40C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -255,13 +273,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -270,18 +296,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,402 +589,439 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="49" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="1"/>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="49" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="10">
         <v>2024</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="6">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10">
         <v>2025</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="8" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8" t="s">
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8" t="s">
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8" t="s">
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8" t="s">
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="4"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>36</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>37</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <v>38</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <v>39</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="7">
         <v>40</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="7">
         <v>41</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="7">
         <v>42</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="7">
         <v>43</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="7">
         <v>44</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="7">
         <v>45</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="7">
         <v>46</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="7">
         <v>47</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>48</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="7">
         <v>49</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="7">
         <v>50</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="7">
         <v>51</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="8">
         <v>52</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="7">
         <v>1</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="7">
         <v>2</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="7">
         <v>3</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="7">
         <v>4</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="7">
         <v>5</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="7">
         <v>6</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="7">
         <v>7</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="7">
         <v>8</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="7">
         <v>9</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="7">
         <v>10</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="7">
         <v>11</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="7">
         <v>12</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="7">
         <v>13</v>
       </c>
-      <c r="AF3" s="12">
+      <c r="AF3" s="7">
         <v>14</v>
       </c>
-      <c r="AG3" s="12">
+      <c r="AG3" s="7">
         <v>15</v>
       </c>
-      <c r="AH3" s="12">
+      <c r="AH3" s="7">
         <v>16</v>
       </c>
-      <c r="AI3" s="12">
+      <c r="AI3" s="7">
         <v>17</v>
       </c>
-      <c r="AJ3" s="12">
+      <c r="AJ3" s="7">
         <v>18</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AK3" s="7">
         <v>19</v>
       </c>
-      <c r="AL3" s="12">
+      <c r="AL3" s="7">
         <v>20</v>
       </c>
-      <c r="AM3" s="12">
+      <c r="AM3" s="7">
         <v>21</v>
       </c>
-      <c r="AN3" s="12">
+      <c r="AN3" s="7">
         <v>22</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AO3" s="7">
         <v>23</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="7">
         <v>24</v>
       </c>
-      <c r="AQ3" s="12">
+      <c r="AQ3" s="7">
         <v>25</v>
       </c>
-      <c r="AR3" s="12">
+      <c r="AR3" s="7">
         <v>26</v>
       </c>
-      <c r="AS3" s="12">
+      <c r="AS3" s="7">
         <v>27</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AT3" s="7">
         <v>28</v>
       </c>
-      <c r="AU3" s="12">
+      <c r="AU3" s="7">
         <v>29</v>
       </c>
-      <c r="AV3" s="12">
+      <c r="AV3" s="7">
         <v>30</v>
       </c>
-      <c r="AW3" s="12">
+      <c r="AW3" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="G8" s="16"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Gantt_PlanoTese_ControloPlataformaSismica.xlsx
+++ b/Gantt_PlanoTese_ControloPlataformaSismica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist198555_tecnico_ulisboa_pt/Documents/Controlo de Plataforma Sismica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_F25DC773A252ABDACC104863F1DD4ACA5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1F27DB-81A8-4754-ACED-D759329FA40C}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_F25DC773A252ABDACC104863F1DD4ACA5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C2C583-1DFE-42C9-8442-0C3902E47352}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -273,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -287,6 +293,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,10 +310,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,147 +597,146 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="49" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="3.42578125" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" style="1" customWidth="1"/>
+    <col min="19" max="49" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="15">
         <v>2024</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="15">
         <v>2025</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="9" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9" t="s">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9" t="s">
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9" t="s">
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9" t="s">
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9" t="s">
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
       <c r="AX2" s="3"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
@@ -885,113 +892,121 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>14</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1015,8 +1030,8 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="K14" s="18"/>
+      <c r="S14" s="18"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>

--- a/Gantt_PlanoTese_ControloPlataformaSismica.xlsx
+++ b/Gantt_PlanoTese_ControloPlataformaSismica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist198555_tecnico_ulisboa_pt/Documents/Controlo de Plataforma Sismica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="11_F25DC773A252ABDACC104863F1DD4ACA5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C2C583-1DFE-42C9-8442-0C3902E47352}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104863F1DD4ACA5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25D1059-888E-4696-857C-DA6A40E9ACDA}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,13 +181,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -294,10 +300,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,6 +315,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,6 +333,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC91EF2-C37E-1BF6-A4BA-73A95647E7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="2895600"/>
+          <a:ext cx="7562850" cy="1840354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,12 +653,12 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.85546875" customWidth="1"/>
     <col min="2" max="17" width="3.42578125" customWidth="1"/>
     <col min="18" max="18" width="3.42578125" style="1" customWidth="1"/>
     <col min="19" max="49" width="3.42578125" customWidth="1"/>
@@ -612,131 +668,131 @@
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>2024</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="13">
         <v>2025</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="14" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14" t="s">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14" t="s">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
       <c r="AX2" s="3"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
@@ -892,78 +948,78 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="9"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
@@ -971,21 +1027,19 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="18"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1030,8 +1084,6 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="S14" s="18"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -1056,5 +1108,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Gantt_PlanoTese_ControloPlataformaSismica.xlsx
+++ b/Gantt_PlanoTese_ControloPlataformaSismica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist198555_tecnico_ulisboa_pt/Documents/Controlo de Plataforma Sismica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104863F1DD4ACA5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25D1059-888E-4696-857C-DA6A40E9ACDA}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_F25DC773A252ABDACC104863F1DD4ACA5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DC758E-0108-476F-95A9-D202D7A22376}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -57,12 +57,6 @@
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>1-Revisão do estado da arte</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>7-Identificação do sistema</t>
   </si>
   <si>
-    <t>8-Definição de metodologia a aplicar na realização de ensaios sísmicos</t>
-  </si>
-  <si>
     <t>9-Definição da Instrumentação e Calibração do Sistema</t>
   </si>
   <si>
@@ -97,6 +88,9 @@
   </si>
   <si>
     <t>Controlo de plataforma sísmica - Gantt</t>
+  </si>
+  <si>
+    <t>8-Definição de metodologia a aplicar nos ensaios sísmicos</t>
   </si>
 </sst>
 </file>
@@ -285,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -302,6 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,10 +311,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,15 +333,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>206375</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>163954</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>56004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -371,8 +364,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="2895600"/>
-          <a:ext cx="7562850" cy="1840354"/>
+          <a:off x="206375" y="2978150"/>
+          <a:ext cx="7635875" cy="1840354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>201257</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B3FCC5-E3A2-D9A8-FBC0-55F73EDE0456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="2873375"/>
+          <a:ext cx="4954232" cy="2250439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -647,155 +684,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX14"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.85546875" customWidth="1"/>
-    <col min="2" max="17" width="3.42578125" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" style="1" customWidth="1"/>
-    <col min="19" max="49" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="17" width="3" customWidth="1"/>
+    <col min="18" max="18" width="3" style="1" customWidth="1"/>
+    <col min="19" max="40" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13">
+        <v>20</v>
+      </c>
+      <c r="B1" s="16">
         <v>2024</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="13">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="16">
         <v>2025</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="12" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12" t="s">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12" t="s">
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12" t="s">
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="3"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -916,81 +931,53 @@
       <c r="AN3" s="7">
         <v>22</v>
       </c>
-      <c r="AO3" s="7">
-        <v>23</v>
-      </c>
-      <c r="AP3" s="7">
-        <v>24</v>
-      </c>
-      <c r="AQ3" s="7">
-        <v>25</v>
-      </c>
-      <c r="AR3" s="7">
-        <v>26</v>
-      </c>
-      <c r="AS3" s="7">
-        <v>27</v>
-      </c>
-      <c r="AT3" s="7">
-        <v>28</v>
-      </c>
-      <c r="AU3" s="7">
-        <v>29</v>
-      </c>
-      <c r="AV3" s="7">
-        <v>30</v>
-      </c>
-      <c r="AW3" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="16"/>
+        <v>11</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1001,11 +988,10 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -1015,17 +1001,17 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="9"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1033,17 +1019,17 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="12"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1053,26 +1039,26 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -1080,9 +1066,9 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -1091,12 +1077,10 @@
       <c r="AN14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AW2"/>
     <mergeCell ref="B1:R1"/>
-    <mergeCell ref="S1:AW1"/>
+    <mergeCell ref="S1:AN1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:N2"/>
